--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd40lg-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd40lg-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Cd40lg</t>
+  </si>
+  <si>
+    <t>Cd40</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd40lg</t>
-  </si>
-  <si>
-    <t>Cd40</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1673333333333333</v>
+        <v>0.043971</v>
       </c>
       <c r="H2">
-        <v>0.502</v>
+        <v>0.131913</v>
       </c>
       <c r="I2">
-        <v>0.4201125098123887</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4201125098123888</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.507373</v>
+        <v>3.790397333333333</v>
       </c>
       <c r="N2">
-        <v>10.522119</v>
+        <v>11.371192</v>
       </c>
       <c r="O2">
-        <v>0.1144553684342397</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="P2">
-        <v>0.1145474722215996</v>
+        <v>0.08393263899063108</v>
       </c>
       <c r="Q2">
-        <v>0.5869004153333333</v>
+        <v>0.166667561144</v>
       </c>
       <c r="R2">
-        <v>5.282103738</v>
+        <v>1.500008050296</v>
       </c>
       <c r="S2">
-        <v>0.0480841320944101</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="T2">
-        <v>0.0481228260476811</v>
+        <v>0.08393263899063108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1673333333333333</v>
+        <v>0.043971</v>
       </c>
       <c r="H3">
-        <v>0.502</v>
+        <v>0.131913</v>
       </c>
       <c r="I3">
-        <v>0.4201125098123887</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4201125098123888</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.250265</v>
       </c>
       <c r="O3">
-        <v>0.01359987861907233</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="P3">
-        <v>0.01361082262585495</v>
+        <v>0.009228411664108861</v>
       </c>
       <c r="Q3">
-        <v>0.06973700333333333</v>
+        <v>0.018325134105</v>
       </c>
       <c r="R3">
-        <v>0.62763303</v>
+        <v>0.164926206945</v>
       </c>
       <c r="S3">
-        <v>0.00571347913980232</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="T3">
-        <v>0.00571807685395917</v>
+        <v>0.009228411664108861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1673333333333333</v>
+        <v>0.043971</v>
       </c>
       <c r="H4">
-        <v>0.502</v>
+        <v>0.131913</v>
       </c>
       <c r="I4">
-        <v>0.4201125098123887</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4201125098123888</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.20059333333333</v>
+        <v>27.54740933333333</v>
       </c>
       <c r="N4">
-        <v>54.60178</v>
+        <v>82.64222799999999</v>
       </c>
       <c r="O4">
-        <v>0.5939361498444659</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="P4">
-        <v>0.5944140983199194</v>
+        <v>0.6099958815316303</v>
       </c>
       <c r="Q4">
-        <v>3.045565951111111</v>
+        <v>1.211287135796</v>
       </c>
       <c r="R4">
-        <v>27.41009356</v>
+        <v>10.901584222164</v>
       </c>
       <c r="S4">
-        <v>0.2495200065794655</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="T4">
-        <v>0.2497207987130494</v>
+        <v>0.6099958815316303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1673333333333333</v>
+        <v>0.043971</v>
       </c>
       <c r="H5">
-        <v>0.502</v>
+        <v>0.131913</v>
       </c>
       <c r="I5">
-        <v>0.4201125098123887</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4201125098123888</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0739195</v>
+        <v>0.2239595</v>
       </c>
       <c r="N5">
-        <v>0.147839</v>
+        <v>0.447919</v>
       </c>
       <c r="O5">
-        <v>0.002412199559891344</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="P5">
-        <v>0.00160942712639622</v>
+        <v>0.003306163832608268</v>
       </c>
       <c r="Q5">
-        <v>0.01236919633333333</v>
+        <v>0.0098477231745</v>
       </c>
       <c r="R5">
-        <v>0.07421517799999999</v>
+        <v>0.059086339047</v>
       </c>
       <c r="S5">
-        <v>0.001013395211274292</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="T5">
-        <v>0.0006761404694304565</v>
+        <v>0.003306163832608268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1673333333333333</v>
+        <v>0.043971</v>
       </c>
       <c r="H6">
-        <v>0.502</v>
+        <v>0.131913</v>
       </c>
       <c r="I6">
-        <v>0.4201125098123887</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4201125098123888</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.445382666666667</v>
+        <v>13.25612433333333</v>
       </c>
       <c r="N6">
-        <v>25.336148</v>
+        <v>39.768373</v>
       </c>
       <c r="O6">
-        <v>0.2755964035423308</v>
+        <v>0.2930524642518384</v>
       </c>
       <c r="P6">
-        <v>0.2758181797062299</v>
+        <v>0.2935369039810215</v>
       </c>
       <c r="Q6">
-        <v>1.413194032888889</v>
+        <v>0.582885043061</v>
       </c>
       <c r="R6">
-        <v>12.718746296</v>
+        <v>5.245965387549</v>
       </c>
       <c r="S6">
-        <v>0.1157814967874365</v>
+        <v>0.2930524642518384</v>
       </c>
       <c r="T6">
-        <v>0.1158746677282687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.2309726666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.692918</v>
-      </c>
-      <c r="I7">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="J7">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.507373</v>
-      </c>
-      <c r="N7">
-        <v>10.522119</v>
-      </c>
-      <c r="O7">
-        <v>0.1144553684342397</v>
-      </c>
-      <c r="P7">
-        <v>0.1145474722215996</v>
-      </c>
-      <c r="Q7">
-        <v>0.8101072948046667</v>
-      </c>
-      <c r="R7">
-        <v>7.290965653242</v>
-      </c>
-      <c r="S7">
-        <v>0.06637123633982961</v>
-      </c>
-      <c r="T7">
-        <v>0.06642464617391851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.2309726666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.692918</v>
-      </c>
-      <c r="I8">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="J8">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.416755</v>
-      </c>
-      <c r="N8">
-        <v>1.250265</v>
-      </c>
-      <c r="O8">
-        <v>0.01359987861907233</v>
-      </c>
-      <c r="P8">
-        <v>0.01361082262585495</v>
-      </c>
-      <c r="Q8">
-        <v>0.09625901369666667</v>
-      </c>
-      <c r="R8">
-        <v>0.8663311232700001</v>
-      </c>
-      <c r="S8">
-        <v>0.007886399479270008</v>
-      </c>
-      <c r="T8">
-        <v>0.007892745771895776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.2309726666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.692918</v>
-      </c>
-      <c r="I9">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="J9">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.20059333333333</v>
-      </c>
-      <c r="N9">
-        <v>54.60178</v>
-      </c>
-      <c r="O9">
-        <v>0.5939361498444659</v>
-      </c>
-      <c r="P9">
-        <v>0.5944140983199194</v>
-      </c>
-      <c r="Q9">
-        <v>4.203839577115556</v>
-      </c>
-      <c r="R9">
-        <v>37.83455619404</v>
-      </c>
-      <c r="S9">
-        <v>0.3444161432650003</v>
-      </c>
-      <c r="T9">
-        <v>0.3446932996068701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2309726666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.692918</v>
-      </c>
-      <c r="I10">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="J10">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.0739195</v>
-      </c>
-      <c r="N10">
-        <v>0.147839</v>
-      </c>
-      <c r="O10">
-        <v>0.002412199559891344</v>
-      </c>
-      <c r="P10">
-        <v>0.00160942712639622</v>
-      </c>
-      <c r="Q10">
-        <v>0.01707338403366667</v>
-      </c>
-      <c r="R10">
-        <v>0.102440304202</v>
-      </c>
-      <c r="S10">
-        <v>0.001398804348617052</v>
-      </c>
-      <c r="T10">
-        <v>0.000933286656965763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2309726666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.692918</v>
-      </c>
-      <c r="I11">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="J11">
-        <v>0.5798874901876112</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.445382666666667</v>
-      </c>
-      <c r="N11">
-        <v>25.336148</v>
-      </c>
-      <c r="O11">
-        <v>0.2755964035423308</v>
-      </c>
-      <c r="P11">
-        <v>0.2758181797062299</v>
-      </c>
-      <c r="Q11">
-        <v>1.950652555540445</v>
-      </c>
-      <c r="R11">
-        <v>17.555872999864</v>
-      </c>
-      <c r="S11">
-        <v>0.1598149067548943</v>
-      </c>
-      <c r="T11">
-        <v>0.1599435119779612</v>
+        <v>0.2935369039810215</v>
       </c>
     </row>
   </sheetData>
